--- a/database/industries/folad/kavir/product/monthly.xlsx
+++ b/database/industries/folad/kavir/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="77">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3247,28 +3247,28 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>206</v>
+        <v>1646</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>1646</v>
+        <v>2988</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>2988</v>
+        <v>4723</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>4723</v>
+        <v>3204</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>3204</v>
+        <v>361</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M11" s="12" t="n">
         <v>0</v>
@@ -3531,8 +3531,8 @@
       <c r="AT12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AU12" s="15" t="s">
-        <v>58</v>
+      <c r="AU12" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AV12" s="15" t="n">
         <v>0</v>
@@ -3565,154 +3565,154 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>73004</v>
+        <v>51532</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>51532</v>
+        <v>52298</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>52298</v>
+        <v>76949</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>76949</v>
+        <v>71833</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>71833</v>
+        <v>72254</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>72254</v>
+        <v>70504</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>70504</v>
+        <v>69201</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>69201</v>
+        <v>78138</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>78138</v>
+        <v>76739</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>76739</v>
+        <v>75316</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>75316</v>
+        <v>74652</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>74652</v>
+        <v>76011</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>76011</v>
+        <v>68652</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>68652</v>
+        <v>54307496</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>54307496</v>
+        <v>73294058</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>73294058</v>
+        <v>70754448</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>70754448</v>
+        <v>72918261</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>72918261</v>
+        <v>61665830</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>61665830</v>
+        <v>63437000</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>63437000</v>
+        <v>61403000</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>61403000</v>
+        <v>72545807</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>72545807</v>
+        <v>73025080</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>73025080</v>
+        <v>67380321</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>67380321</v>
+        <v>65581933</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>65581933</v>
+        <v>58962347</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>58962347</v>
+        <v>77294007</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>77294007</v>
+        <v>76579584</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>76579584</v>
+        <v>73072741</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>73072741</v>
+        <v>40662261</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>40662261</v>
+        <v>52841477</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>52841477</v>
+        <v>43440362</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>43440362</v>
+        <v>65465261</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>65465261</v>
+        <v>59353190</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>59353190</v>
+        <v>71849648</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>71849648</v>
+        <v>70543646</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>70543646</v>
+        <v>75274000</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>75274000</v>
+        <v>67249000</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>67249000</v>
+        <v>69158437</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>69158437</v>
+        <v>7075666</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>7075666</v>
+        <v>32170030</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>32170030</v>
+        <v>33160352</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>33160352</v>
+        <v>76450354</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>76450354</v>
+        <v>78323601</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>78323601</v>
+        <v>67653000</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>67653000</v>
+        <v>73355000</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>73355000</v>
+        <v>54157694</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>54157694</v>
+        <v>33347706</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>33347706</v>
+        <v>50726193</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>50726193</v>
+        <v>58946007</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>58946007</v>
+        <v>35598335</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,154 +3724,154 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>1445</v>
-      </c>
-      <c r="F14" s="15" t="n">
         <v>1634</v>
       </c>
+      <c r="F14" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="15" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>58</v>
+      <c r="I14" s="15" t="n">
+        <v>997</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>997</v>
+        <v>1658</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>1658</v>
+        <v>929</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>929</v>
+        <v>1333</v>
       </c>
       <c r="M14" s="15" t="n">
-        <v>1333</v>
+        <v>1556</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>1556</v>
+        <v>1629</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>1629</v>
+        <v>1638</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>1638</v>
+        <v>1913</v>
       </c>
       <c r="Q14" s="15" t="n">
-        <v>1913</v>
+        <v>1291</v>
       </c>
       <c r="R14" s="15" t="n">
-        <v>1291</v>
+        <v>1066320</v>
       </c>
       <c r="S14" s="15" t="n">
-        <v>1066320</v>
+        <v>1425110</v>
       </c>
       <c r="T14" s="15" t="n">
-        <v>1425110</v>
+        <v>1401013</v>
       </c>
       <c r="U14" s="15" t="n">
-        <v>1401013</v>
+        <v>1458365</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>1458365</v>
+        <v>2115330</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>2115330</v>
+        <v>3474482</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>3474482</v>
+        <v>1447560</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>1447560</v>
+        <v>981480</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>981480</v>
+        <v>2864440</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>2864440</v>
+        <v>1947780</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>1947780</v>
+        <v>2116000</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>2116000</v>
+        <v>1302700</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>1302700</v>
+        <v>1679380</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>1679380</v>
+        <v>1019140</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>1019140</v>
+        <v>957580</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>957580</v>
+        <v>581580</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>581580</v>
+        <v>727320</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>727320</v>
+        <v>595060</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>595060</v>
+        <v>892500</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>892500</v>
+        <v>1621180</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>1621180</v>
+        <v>1338240</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>1338240</v>
+        <v>1054780</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>1054780</v>
+        <v>1020200</v>
       </c>
       <c r="AO14" s="15" t="n">
-        <v>1020200</v>
+        <v>1130000</v>
       </c>
       <c r="AP14" s="15" t="n">
-        <v>1130000</v>
+        <v>1000200</v>
       </c>
       <c r="AQ14" s="15" t="n">
-        <v>1000200</v>
+        <v>98940</v>
       </c>
       <c r="AR14" s="15" t="n">
-        <v>98940</v>
+        <v>333120</v>
       </c>
       <c r="AS14" s="15" t="n">
-        <v>333120</v>
+        <v>380120</v>
       </c>
       <c r="AT14" s="15" t="n">
-        <v>380120</v>
+        <v>927860</v>
       </c>
       <c r="AU14" s="15" t="n">
-        <v>927860</v>
+        <v>1085160</v>
       </c>
       <c r="AV14" s="15" t="n">
-        <v>1085160</v>
+        <v>948280</v>
       </c>
       <c r="AW14" s="15" t="n">
-        <v>948280</v>
+        <v>1222000</v>
       </c>
       <c r="AX14" s="15" t="n">
-        <v>1222000</v>
+        <v>636100</v>
       </c>
       <c r="AY14" s="15" t="n">
-        <v>636100</v>
+        <v>621000</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>621000</v>
+        <v>852700</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>852700</v>
+        <v>770600</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>770600</v>
+        <v>345560</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,8 +3985,8 @@
       <c r="T16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="19" t="s">
-        <v>58</v>
+      <c r="U16" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="19" t="n">
         <v>0</v>
@@ -4095,154 +4095,154 @@
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="n">
-        <v>74655</v>
+        <v>54812</v>
       </c>
       <c r="F17" s="21" t="n">
-        <v>54812</v>
+        <v>55286</v>
       </c>
       <c r="G17" s="21" t="n">
-        <v>55286</v>
+        <v>81672</v>
       </c>
       <c r="H17" s="21" t="n">
-        <v>81672</v>
+        <v>75037</v>
       </c>
       <c r="I17" s="21" t="n">
-        <v>75037</v>
+        <v>73612</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>73612</v>
+        <v>72602</v>
       </c>
       <c r="K17" s="21" t="n">
-        <v>72602</v>
+        <v>70152</v>
       </c>
       <c r="L17" s="21" t="n">
-        <v>70152</v>
+        <v>79471</v>
       </c>
       <c r="M17" s="21" t="n">
-        <v>79471</v>
+        <v>78295</v>
       </c>
       <c r="N17" s="21" t="n">
-        <v>78295</v>
+        <v>76945</v>
       </c>
       <c r="O17" s="21" t="n">
-        <v>76945</v>
+        <v>76290</v>
       </c>
       <c r="P17" s="21" t="n">
-        <v>76290</v>
+        <v>77924</v>
       </c>
       <c r="Q17" s="21" t="n">
-        <v>77924</v>
+        <v>69943</v>
       </c>
       <c r="R17" s="21" t="n">
-        <v>69943</v>
+        <v>55373816</v>
       </c>
       <c r="S17" s="21" t="n">
-        <v>55373816</v>
+        <v>74719168</v>
       </c>
       <c r="T17" s="21" t="n">
-        <v>74719168</v>
+        <v>72155461</v>
       </c>
       <c r="U17" s="21" t="n">
-        <v>72155461</v>
+        <v>74376626</v>
       </c>
       <c r="V17" s="21" t="n">
-        <v>74376626</v>
+        <v>63781160</v>
       </c>
       <c r="W17" s="21" t="n">
-        <v>63781160</v>
+        <v>66911482</v>
       </c>
       <c r="X17" s="21" t="n">
-        <v>66911482</v>
+        <v>62850560</v>
       </c>
       <c r="Y17" s="21" t="n">
-        <v>62850560</v>
+        <v>73527287</v>
       </c>
       <c r="Z17" s="21" t="n">
-        <v>73527287</v>
+        <v>75889520</v>
       </c>
       <c r="AA17" s="21" t="n">
-        <v>75889520</v>
+        <v>69328101</v>
       </c>
       <c r="AB17" s="21" t="n">
-        <v>69328101</v>
+        <v>67697933</v>
       </c>
       <c r="AC17" s="21" t="n">
-        <v>67697933</v>
+        <v>60265047</v>
       </c>
       <c r="AD17" s="21" t="n">
-        <v>60265047</v>
+        <v>78973387</v>
       </c>
       <c r="AE17" s="21" t="n">
-        <v>78973387</v>
+        <v>77598724</v>
       </c>
       <c r="AF17" s="21" t="n">
-        <v>77598724</v>
+        <v>74030321</v>
       </c>
       <c r="AG17" s="21" t="n">
-        <v>74030321</v>
+        <v>41243841</v>
       </c>
       <c r="AH17" s="21" t="n">
-        <v>41243841</v>
+        <v>53568797</v>
       </c>
       <c r="AI17" s="21" t="n">
-        <v>53568797</v>
+        <v>44035422</v>
       </c>
       <c r="AJ17" s="21" t="n">
-        <v>44035422</v>
+        <v>66357761</v>
       </c>
       <c r="AK17" s="21" t="n">
-        <v>66357761</v>
+        <v>60974370</v>
       </c>
       <c r="AL17" s="21" t="n">
-        <v>60974370</v>
+        <v>73187888</v>
       </c>
       <c r="AM17" s="21" t="n">
-        <v>73187888</v>
+        <v>71598426</v>
       </c>
       <c r="AN17" s="21" t="n">
-        <v>71598426</v>
+        <v>76294200</v>
       </c>
       <c r="AO17" s="21" t="n">
-        <v>76294200</v>
+        <v>68379000</v>
       </c>
       <c r="AP17" s="21" t="n">
-        <v>68379000</v>
+        <v>70158637</v>
       </c>
       <c r="AQ17" s="21" t="n">
-        <v>70158637</v>
+        <v>7174606</v>
       </c>
       <c r="AR17" s="21" t="n">
-        <v>7174606</v>
+        <v>32503150</v>
       </c>
       <c r="AS17" s="21" t="n">
-        <v>32503150</v>
+        <v>33540472</v>
       </c>
       <c r="AT17" s="21" t="n">
-        <v>33540472</v>
+        <v>77378214</v>
       </c>
       <c r="AU17" s="21" t="n">
-        <v>77378214</v>
+        <v>79408761</v>
       </c>
       <c r="AV17" s="21" t="n">
-        <v>79408761</v>
+        <v>68601280</v>
       </c>
       <c r="AW17" s="21" t="n">
-        <v>68601280</v>
+        <v>74577000</v>
       </c>
       <c r="AX17" s="21" t="n">
-        <v>74577000</v>
+        <v>54793794</v>
       </c>
       <c r="AY17" s="21" t="n">
-        <v>54793794</v>
+        <v>33968706</v>
       </c>
       <c r="AZ17" s="21" t="n">
-        <v>33968706</v>
+        <v>51578893</v>
       </c>
       <c r="BA17" s="21" t="n">
-        <v>51578893</v>
+        <v>59716607</v>
       </c>
       <c r="BB17" s="21" t="n">
-        <v>59716607</v>
+        <v>35943895</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,31 +4688,31 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="n">
-        <v>224</v>
+        <v>1642</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>1642</v>
+        <v>1106</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>1106</v>
+        <v>4542</v>
       </c>
       <c r="H24" s="12" t="n">
-        <v>4542</v>
+        <v>3603</v>
       </c>
       <c r="I24" s="12" t="n">
-        <v>3603</v>
+        <v>2082</v>
       </c>
       <c r="J24" s="12" t="n">
-        <v>2082</v>
+        <v>1234</v>
       </c>
       <c r="K24" s="12" t="n">
-        <v>1234</v>
+        <v>145</v>
       </c>
       <c r="L24" s="12" t="n">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="M24" s="12" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N24" s="12" t="n">
         <v>0</v>
@@ -4972,11 +4972,11 @@
       <c r="AT25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AU25" s="15" t="s">
-        <v>58</v>
+      <c r="AU25" s="15" t="n">
+        <v>9985380</v>
       </c>
       <c r="AV25" s="15" t="n">
-        <v>9985380</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="15" t="n">
         <v>0</v>
@@ -4991,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="BA25" s="15" t="n">
-        <v>0</v>
+        <v>64120</v>
       </c>
       <c r="BB25" s="15" t="n">
-        <v>64120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,154 +5006,154 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="n">
-        <v>59506</v>
+        <v>54535</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>54535</v>
+        <v>35532</v>
       </c>
       <c r="G26" s="12" t="n">
-        <v>35532</v>
+        <v>79959</v>
       </c>
       <c r="H26" s="12" t="n">
-        <v>79959</v>
+        <v>61513</v>
       </c>
       <c r="I26" s="12" t="n">
-        <v>61513</v>
+        <v>87204</v>
       </c>
       <c r="J26" s="12" t="n">
-        <v>87204</v>
+        <v>75822</v>
       </c>
       <c r="K26" s="12" t="n">
-        <v>75822</v>
+        <v>71588</v>
       </c>
       <c r="L26" s="12" t="n">
-        <v>71588</v>
+        <v>89376</v>
       </c>
       <c r="M26" s="12" t="n">
-        <v>89376</v>
+        <v>68889</v>
       </c>
       <c r="N26" s="12" t="n">
-        <v>68889</v>
+        <v>85748</v>
       </c>
       <c r="O26" s="12" t="n">
-        <v>85748</v>
+        <v>75482</v>
       </c>
       <c r="P26" s="12" t="n">
-        <v>75482</v>
+        <v>87017</v>
       </c>
       <c r="Q26" s="12" t="n">
-        <v>87017</v>
+        <v>57477</v>
       </c>
       <c r="R26" s="12" t="n">
-        <v>57477</v>
+        <v>42795080</v>
       </c>
       <c r="S26" s="12" t="n">
-        <v>42795080</v>
+        <v>92254361</v>
       </c>
       <c r="T26" s="12" t="n">
-        <v>92254361</v>
+        <v>61625200</v>
       </c>
       <c r="U26" s="12" t="n">
-        <v>61625200</v>
+        <v>63849440</v>
       </c>
       <c r="V26" s="12" t="n">
-        <v>63849440</v>
+        <v>46705580</v>
       </c>
       <c r="W26" s="12" t="n">
-        <v>46705580</v>
+        <v>68613740</v>
       </c>
       <c r="X26" s="12" t="n">
-        <v>68613740</v>
+        <v>65281440</v>
       </c>
       <c r="Y26" s="12" t="n">
-        <v>65281440</v>
+        <v>74399480</v>
       </c>
       <c r="Z26" s="12" t="n">
-        <v>74399480</v>
+        <v>83379560</v>
       </c>
       <c r="AA26" s="12" t="n">
-        <v>83379560</v>
+        <v>75497160</v>
       </c>
       <c r="AB26" s="12" t="n">
-        <v>75497160</v>
+        <v>63845600</v>
       </c>
       <c r="AC26" s="12" t="n">
-        <v>63845600</v>
+        <v>59208900</v>
       </c>
       <c r="AD26" s="12" t="n">
-        <v>59208900</v>
+        <v>76767300</v>
       </c>
       <c r="AE26" s="12" t="n">
-        <v>76767300</v>
+        <v>72966140</v>
       </c>
       <c r="AF26" s="12" t="n">
-        <v>72966140</v>
+        <v>82043040</v>
       </c>
       <c r="AG26" s="12" t="n">
-        <v>82043040</v>
+        <v>47642040</v>
       </c>
       <c r="AH26" s="12" t="n">
-        <v>47642040</v>
+        <v>37734540</v>
       </c>
       <c r="AI26" s="12" t="n">
-        <v>37734540</v>
+        <v>42547121</v>
       </c>
       <c r="AJ26" s="12" t="n">
-        <v>42547121</v>
+        <v>61125760</v>
       </c>
       <c r="AK26" s="12" t="n">
-        <v>61125760</v>
+        <v>67484360</v>
       </c>
       <c r="AL26" s="12" t="n">
-        <v>67484360</v>
+        <v>65030840</v>
       </c>
       <c r="AM26" s="12" t="n">
-        <v>65030840</v>
+        <v>65885820</v>
       </c>
       <c r="AN26" s="12" t="n">
-        <v>65885820</v>
+        <v>87329860</v>
       </c>
       <c r="AO26" s="12" t="n">
-        <v>87329860</v>
+        <v>64515173</v>
       </c>
       <c r="AP26" s="12" t="n">
-        <v>64515173</v>
+        <v>39709000</v>
       </c>
       <c r="AQ26" s="12" t="n">
-        <v>39709000</v>
+        <v>38760100</v>
       </c>
       <c r="AR26" s="12" t="n">
-        <v>38760100</v>
+        <v>45369160</v>
       </c>
       <c r="AS26" s="12" t="n">
-        <v>45369160</v>
+        <v>42464220</v>
       </c>
       <c r="AT26" s="12" t="n">
-        <v>42464220</v>
+        <v>60298760</v>
       </c>
       <c r="AU26" s="12" t="n">
-        <v>60298760</v>
+        <v>75663000</v>
       </c>
       <c r="AV26" s="12" t="n">
-        <v>75663000</v>
+        <v>50834160</v>
       </c>
       <c r="AW26" s="12" t="n">
-        <v>50834160</v>
+        <v>76056280</v>
       </c>
       <c r="AX26" s="12" t="n">
-        <v>76056280</v>
+        <v>66080501</v>
       </c>
       <c r="AY26" s="12" t="n">
-        <v>66080501</v>
+        <v>45345420</v>
       </c>
       <c r="AZ26" s="12" t="n">
-        <v>45345420</v>
+        <v>48644300</v>
       </c>
       <c r="BA26" s="12" t="n">
-        <v>48644300</v>
+        <v>61688120</v>
       </c>
       <c r="BB26" s="12" t="n">
-        <v>61688120</v>
+        <v>31091040</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,154 +5165,154 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F27" s="15" t="n">
         <v>1964</v>
       </c>
+      <c r="F27" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="15" t="s">
         <v>58</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>58</v>
+      <c r="I27" s="15" t="n">
+        <v>1465</v>
       </c>
       <c r="J27" s="15" t="n">
-        <v>1465</v>
+        <v>1646</v>
       </c>
       <c r="K27" s="15" t="n">
-        <v>1646</v>
+        <v>1328</v>
       </c>
       <c r="L27" s="15" t="n">
-        <v>1328</v>
+        <v>1585</v>
       </c>
       <c r="M27" s="15" t="n">
-        <v>1585</v>
+        <v>3126</v>
       </c>
       <c r="N27" s="15" t="n">
-        <v>3126</v>
+        <v>1754</v>
       </c>
       <c r="O27" s="15" t="n">
-        <v>1754</v>
+        <v>1969</v>
       </c>
       <c r="P27" s="15" t="n">
-        <v>1969</v>
+        <v>2709</v>
       </c>
       <c r="Q27" s="15" t="n">
-        <v>2709</v>
+        <v>873</v>
       </c>
       <c r="R27" s="15" t="n">
-        <v>873</v>
+        <v>1548600</v>
       </c>
       <c r="S27" s="15" t="n">
-        <v>1548600</v>
+        <v>2276480</v>
       </c>
       <c r="T27" s="15" t="n">
-        <v>2276480</v>
+        <v>1383520</v>
       </c>
       <c r="U27" s="15" t="n">
-        <v>1383520</v>
+        <v>2096920</v>
       </c>
       <c r="V27" s="15" t="n">
-        <v>2096920</v>
+        <v>2006600</v>
       </c>
       <c r="W27" s="15" t="n">
-        <v>2006600</v>
+        <v>1346200</v>
       </c>
       <c r="X27" s="15" t="n">
-        <v>1346200</v>
+        <v>965000</v>
       </c>
       <c r="Y27" s="15" t="n">
-        <v>965000</v>
+        <v>1269280</v>
       </c>
       <c r="Z27" s="15" t="n">
-        <v>1269280</v>
+        <v>3569160</v>
       </c>
       <c r="AA27" s="15" t="n">
-        <v>3569160</v>
+        <v>1714660</v>
       </c>
       <c r="AB27" s="15" t="n">
-        <v>1714660</v>
+        <v>1180400</v>
       </c>
       <c r="AC27" s="15" t="n">
-        <v>1180400</v>
+        <v>1190420</v>
       </c>
       <c r="AD27" s="15" t="n">
-        <v>1190420</v>
+        <v>1220080</v>
       </c>
       <c r="AE27" s="15" t="n">
-        <v>1220080</v>
+        <v>704420</v>
       </c>
       <c r="AF27" s="15" t="n">
-        <v>704420</v>
+        <v>1633280</v>
       </c>
       <c r="AG27" s="15" t="n">
-        <v>1633280</v>
+        <v>2218540</v>
       </c>
       <c r="AH27" s="15" t="n">
-        <v>2218540</v>
+        <v>1200580</v>
       </c>
       <c r="AI27" s="15" t="n">
-        <v>1200580</v>
+        <v>1242240</v>
       </c>
       <c r="AJ27" s="15" t="n">
-        <v>1242240</v>
+        <v>2257960</v>
       </c>
       <c r="AK27" s="15" t="n">
-        <v>2257960</v>
+        <v>3441680</v>
       </c>
       <c r="AL27" s="15" t="n">
-        <v>3441680</v>
+        <v>1833740</v>
       </c>
       <c r="AM27" s="15" t="n">
-        <v>1833740</v>
+        <v>740020</v>
       </c>
       <c r="AN27" s="15" t="n">
-        <v>740020</v>
+        <v>1553520</v>
       </c>
       <c r="AO27" s="15" t="n">
-        <v>1553520</v>
+        <v>1638600</v>
       </c>
       <c r="AP27" s="15" t="n">
-        <v>1638600</v>
+        <v>527320</v>
       </c>
       <c r="AQ27" s="15" t="n">
-        <v>527320</v>
+        <v>2428820</v>
       </c>
       <c r="AR27" s="15" t="n">
-        <v>2428820</v>
+        <v>2767360</v>
       </c>
       <c r="AS27" s="15" t="n">
-        <v>2767360</v>
+        <v>1988060</v>
       </c>
       <c r="AT27" s="15" t="n">
-        <v>1988060</v>
+        <v>1203340</v>
       </c>
       <c r="AU27" s="15" t="n">
-        <v>1203340</v>
+        <v>1430840</v>
       </c>
       <c r="AV27" s="15" t="n">
-        <v>1430840</v>
+        <v>790480</v>
       </c>
       <c r="AW27" s="15" t="n">
-        <v>790480</v>
+        <v>1539000</v>
       </c>
       <c r="AX27" s="15" t="n">
-        <v>1539000</v>
+        <v>1499280</v>
       </c>
       <c r="AY27" s="15" t="n">
-        <v>1499280</v>
+        <v>612300</v>
       </c>
       <c r="AZ27" s="15" t="n">
-        <v>612300</v>
+        <v>535000</v>
       </c>
       <c r="BA27" s="15" t="n">
-        <v>535000</v>
+        <v>736700</v>
       </c>
       <c r="BB27" s="15" t="n">
-        <v>736700</v>
+        <v>1142880</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,8 +5426,8 @@
       <c r="T29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="19" t="s">
-        <v>58</v>
+      <c r="U29" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="19" t="n">
         <v>0</v>
@@ -5642,104 +5642,104 @@
       <c r="T31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="22" t="s">
-        <v>58</v>
+      <c r="U31" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="22" t="n">
-        <v>0</v>
+        <v>-37140</v>
       </c>
       <c r="W31" s="22" t="n">
-        <v>-37140</v>
+        <v>-48220</v>
       </c>
       <c r="X31" s="22" t="n">
-        <v>-48220</v>
+        <v>-22180</v>
       </c>
       <c r="Y31" s="22" t="n">
+        <v>-32920</v>
+      </c>
+      <c r="Z31" s="22" t="n">
+        <v>-44240</v>
+      </c>
+      <c r="AA31" s="22" t="n">
+        <v>-109940</v>
+      </c>
+      <c r="AB31" s="22" t="n">
+        <v>-3740</v>
+      </c>
+      <c r="AC31" s="22" t="n">
+        <v>-5480</v>
+      </c>
+      <c r="AD31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="22" t="n">
         <v>-22180</v>
       </c>
-      <c r="Z31" s="22" t="n">
-        <v>-32920</v>
-      </c>
-      <c r="AA31" s="22" t="n">
-        <v>-44240</v>
-      </c>
-      <c r="AB31" s="22" t="n">
-        <v>-109940</v>
-      </c>
-      <c r="AC31" s="22" t="n">
-        <v>-3740</v>
-      </c>
-      <c r="AD31" s="22" t="n">
-        <v>-5480</v>
-      </c>
-      <c r="AE31" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="AF31" s="22" t="n">
-        <v>-22180</v>
+        <v>-128100</v>
       </c>
       <c r="AG31" s="22" t="n">
-        <v>-128100</v>
-      </c>
-      <c r="AH31" s="22" t="n">
         <v>-25620</v>
       </c>
+      <c r="AH31" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="AI31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AJ31" s="22" t="s">
-        <v>58</v>
+      <c r="AJ31" s="22" t="n">
+        <v>-7900</v>
       </c>
       <c r="AK31" s="22" t="n">
-        <v>-7900</v>
+        <v>-60700</v>
       </c>
       <c r="AL31" s="22" t="n">
-        <v>-60700</v>
+        <v>-61520</v>
       </c>
       <c r="AM31" s="22" t="n">
-        <v>-61520</v>
+        <v>-25780</v>
       </c>
       <c r="AN31" s="22" t="n">
-        <v>-25780</v>
+        <v>-79660</v>
       </c>
       <c r="AO31" s="22" t="n">
-        <v>-79660</v>
+        <v>-14460</v>
       </c>
       <c r="AP31" s="22" t="n">
-        <v>-14460</v>
+        <v>-17760</v>
       </c>
       <c r="AQ31" s="22" t="n">
-        <v>-17760</v>
+        <v>-13960</v>
       </c>
       <c r="AR31" s="22" t="n">
-        <v>-13960</v>
+        <v>-72420</v>
       </c>
       <c r="AS31" s="22" t="n">
-        <v>-72420</v>
+        <v>-37880</v>
       </c>
       <c r="AT31" s="22" t="n">
-        <v>-37880</v>
+        <v>-122320</v>
       </c>
       <c r="AU31" s="22" t="n">
-        <v>-122320</v>
+        <v>-36940</v>
       </c>
       <c r="AV31" s="22" t="n">
-        <v>-36940</v>
+        <v>-309780</v>
       </c>
       <c r="AW31" s="22" t="n">
-        <v>-309780</v>
+        <v>-339640</v>
       </c>
       <c r="AX31" s="22" t="n">
-        <v>-339640</v>
+        <v>-728421</v>
       </c>
       <c r="AY31" s="22" t="n">
-        <v>-728421</v>
+        <v>-11500</v>
       </c>
       <c r="AZ31" s="22" t="n">
-        <v>-11500</v>
-      </c>
-      <c r="BA31" s="22" t="n">
         <v>-67120</v>
+      </c>
+      <c r="BA31" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="BB31" s="22" t="s">
         <v>58</v>
@@ -5799,104 +5799,104 @@
       <c r="T32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="21" t="s">
-        <v>58</v>
+      <c r="U32" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V32" s="21" t="n">
-        <v>0</v>
+        <v>-37140</v>
       </c>
       <c r="W32" s="21" t="n">
-        <v>-37140</v>
+        <v>-48220</v>
       </c>
       <c r="X32" s="21" t="n">
-        <v>-48220</v>
+        <v>-22180</v>
       </c>
       <c r="Y32" s="21" t="n">
+        <v>-32920</v>
+      </c>
+      <c r="Z32" s="21" t="n">
+        <v>-44240</v>
+      </c>
+      <c r="AA32" s="21" t="n">
+        <v>-109940</v>
+      </c>
+      <c r="AB32" s="21" t="n">
+        <v>-3740</v>
+      </c>
+      <c r="AC32" s="21" t="n">
+        <v>-5480</v>
+      </c>
+      <c r="AD32" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="21" t="n">
         <v>-22180</v>
       </c>
-      <c r="Z32" s="21" t="n">
-        <v>-32920</v>
-      </c>
-      <c r="AA32" s="21" t="n">
-        <v>-44240</v>
-      </c>
-      <c r="AB32" s="21" t="n">
-        <v>-109940</v>
-      </c>
-      <c r="AC32" s="21" t="n">
-        <v>-3740</v>
-      </c>
-      <c r="AD32" s="21" t="n">
-        <v>-5480</v>
-      </c>
-      <c r="AE32" s="21" t="n">
-        <v>0</v>
-      </c>
       <c r="AF32" s="21" t="n">
-        <v>-22180</v>
+        <v>-128100</v>
       </c>
       <c r="AG32" s="21" t="n">
-        <v>-128100</v>
+        <v>-25620</v>
       </c>
       <c r="AH32" s="21" t="n">
-        <v>-25620</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AJ32" s="21" t="n">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="AK32" s="21" t="n">
-        <v>-7900</v>
+        <v>-60700</v>
       </c>
       <c r="AL32" s="21" t="n">
-        <v>-60700</v>
+        <v>-61520</v>
       </c>
       <c r="AM32" s="21" t="n">
-        <v>-61520</v>
+        <v>-25780</v>
       </c>
       <c r="AN32" s="21" t="n">
-        <v>-25780</v>
+        <v>-79660</v>
       </c>
       <c r="AO32" s="21" t="n">
-        <v>-79660</v>
+        <v>-14460</v>
       </c>
       <c r="AP32" s="21" t="n">
-        <v>-14460</v>
+        <v>-17760</v>
       </c>
       <c r="AQ32" s="21" t="n">
-        <v>-17760</v>
+        <v>-13960</v>
       </c>
       <c r="AR32" s="21" t="n">
-        <v>-13960</v>
+        <v>-72420</v>
       </c>
       <c r="AS32" s="21" t="n">
-        <v>-72420</v>
+        <v>-37880</v>
       </c>
       <c r="AT32" s="21" t="n">
-        <v>-37880</v>
+        <v>-122320</v>
       </c>
       <c r="AU32" s="21" t="n">
-        <v>-122320</v>
+        <v>-36940</v>
       </c>
       <c r="AV32" s="21" t="n">
-        <v>-36940</v>
+        <v>-309780</v>
       </c>
       <c r="AW32" s="21" t="n">
-        <v>-309780</v>
+        <v>-339640</v>
       </c>
       <c r="AX32" s="21" t="n">
-        <v>-339640</v>
+        <v>-728421</v>
       </c>
       <c r="AY32" s="21" t="n">
-        <v>-728421</v>
+        <v>-11500</v>
       </c>
       <c r="AZ32" s="21" t="n">
-        <v>-11500</v>
+        <v>-67120</v>
       </c>
       <c r="BA32" s="21" t="n">
-        <v>-67120</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="21" t="n">
         <v>0</v>
@@ -5909,154 +5909,154 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19" t="n">
-        <v>60731</v>
+        <v>58141</v>
       </c>
       <c r="F33" s="19" t="n">
-        <v>58141</v>
+        <v>36638</v>
       </c>
       <c r="G33" s="19" t="n">
-        <v>36638</v>
+        <v>84501</v>
       </c>
       <c r="H33" s="19" t="n">
-        <v>84501</v>
+        <v>65116</v>
       </c>
       <c r="I33" s="19" t="n">
-        <v>65116</v>
+        <v>90751</v>
       </c>
       <c r="J33" s="19" t="n">
-        <v>90751</v>
+        <v>78702</v>
       </c>
       <c r="K33" s="19" t="n">
-        <v>78702</v>
+        <v>73061</v>
       </c>
       <c r="L33" s="19" t="n">
-        <v>73061</v>
+        <v>91002</v>
       </c>
       <c r="M33" s="19" t="n">
-        <v>91002</v>
+        <v>72015</v>
       </c>
       <c r="N33" s="19" t="n">
-        <v>72015</v>
+        <v>87502</v>
       </c>
       <c r="O33" s="19" t="n">
-        <v>87502</v>
+        <v>77451</v>
       </c>
       <c r="P33" s="19" t="n">
-        <v>77451</v>
+        <v>89726</v>
       </c>
       <c r="Q33" s="19" t="n">
-        <v>89726</v>
+        <v>58350</v>
       </c>
       <c r="R33" s="19" t="n">
-        <v>58350</v>
+        <v>44343680</v>
       </c>
       <c r="S33" s="19" t="n">
-        <v>44343680</v>
+        <v>94530841</v>
       </c>
       <c r="T33" s="19" t="n">
-        <v>94530841</v>
+        <v>63008720</v>
       </c>
       <c r="U33" s="19" t="n">
-        <v>63008720</v>
+        <v>65946360</v>
       </c>
       <c r="V33" s="19" t="n">
-        <v>65946360</v>
+        <v>48675040</v>
       </c>
       <c r="W33" s="19" t="n">
-        <v>48675040</v>
+        <v>69911720</v>
       </c>
       <c r="X33" s="19" t="n">
-        <v>69911720</v>
+        <v>66224260</v>
       </c>
       <c r="Y33" s="19" t="n">
-        <v>66224260</v>
+        <v>75635840</v>
       </c>
       <c r="Z33" s="19" t="n">
-        <v>75635840</v>
+        <v>86904480</v>
       </c>
       <c r="AA33" s="19" t="n">
-        <v>86904480</v>
+        <v>77101880</v>
       </c>
       <c r="AB33" s="19" t="n">
-        <v>77101880</v>
+        <v>65022260</v>
       </c>
       <c r="AC33" s="19" t="n">
-        <v>65022260</v>
+        <v>60393840</v>
       </c>
       <c r="AD33" s="19" t="n">
-        <v>60393840</v>
+        <v>77987380</v>
       </c>
       <c r="AE33" s="19" t="n">
-        <v>77987380</v>
+        <v>73648380</v>
       </c>
       <c r="AF33" s="19" t="n">
-        <v>73648380</v>
+        <v>83548220</v>
       </c>
       <c r="AG33" s="19" t="n">
-        <v>83548220</v>
+        <v>49834960</v>
       </c>
       <c r="AH33" s="19" t="n">
-        <v>49834960</v>
+        <v>38935120</v>
       </c>
       <c r="AI33" s="19" t="n">
-        <v>38935120</v>
+        <v>43789361</v>
       </c>
       <c r="AJ33" s="19" t="n">
-        <v>43789361</v>
+        <v>63375820</v>
       </c>
       <c r="AK33" s="19" t="n">
-        <v>63375820</v>
+        <v>70865340</v>
       </c>
       <c r="AL33" s="19" t="n">
-        <v>70865340</v>
+        <v>66803060</v>
       </c>
       <c r="AM33" s="19" t="n">
-        <v>66803060</v>
+        <v>66600060</v>
       </c>
       <c r="AN33" s="19" t="n">
-        <v>66600060</v>
+        <v>88803720</v>
       </c>
       <c r="AO33" s="19" t="n">
-        <v>88803720</v>
+        <v>66139313</v>
       </c>
       <c r="AP33" s="19" t="n">
-        <v>66139313</v>
+        <v>40218560</v>
       </c>
       <c r="AQ33" s="19" t="n">
-        <v>40218560</v>
+        <v>41174960</v>
       </c>
       <c r="AR33" s="19" t="n">
-        <v>41174960</v>
+        <v>48064100</v>
       </c>
       <c r="AS33" s="19" t="n">
-        <v>48064100</v>
+        <v>44414400</v>
       </c>
       <c r="AT33" s="19" t="n">
-        <v>44414400</v>
+        <v>61379780</v>
       </c>
       <c r="AU33" s="19" t="n">
-        <v>61379780</v>
+        <v>87042280</v>
       </c>
       <c r="AV33" s="19" t="n">
-        <v>87042280</v>
+        <v>51314860</v>
       </c>
       <c r="AW33" s="19" t="n">
-        <v>51314860</v>
+        <v>77255640</v>
       </c>
       <c r="AX33" s="19" t="n">
-        <v>77255640</v>
+        <v>66851360</v>
       </c>
       <c r="AY33" s="19" t="n">
-        <v>66851360</v>
+        <v>45946220</v>
       </c>
       <c r="AZ33" s="19" t="n">
-        <v>45946220</v>
+        <v>49112180</v>
       </c>
       <c r="BA33" s="19" t="n">
-        <v>49112180</v>
+        <v>62488940</v>
       </c>
       <c r="BB33" s="19" t="n">
-        <v>62488940</v>
+        <v>32233920</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,31 +6502,31 @@
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22" t="n">
-        <v>1242</v>
+        <v>10441</v>
       </c>
       <c r="F40" s="22" t="n">
-        <v>10441</v>
+        <v>7685</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>7685</v>
+        <v>30550</v>
       </c>
       <c r="H40" s="22" t="n">
-        <v>30550</v>
+        <v>25531</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>25531</v>
+        <v>13763</v>
       </c>
       <c r="J40" s="22" t="n">
-        <v>13763</v>
+        <v>8365</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>8365</v>
+        <v>1128</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>1128</v>
+        <v>295</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="N40" s="22" t="n">
         <v>0</v>
@@ -6786,11 +6786,11 @@
       <c r="AT41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AU41" s="15" t="s">
-        <v>58</v>
+      <c r="AU41" s="15" t="n">
+        <v>1302095</v>
       </c>
       <c r="AV41" s="15" t="n">
-        <v>1302095</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="15" t="n">
         <v>0</v>
@@ -6805,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="BA41" s="15" t="n">
-        <v>0</v>
+        <v>12503</v>
       </c>
       <c r="BB41" s="15" t="n">
-        <v>12503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6820,154 +6820,154 @@
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="n">
-        <v>2277882</v>
+        <v>2629041</v>
       </c>
       <c r="F42" s="22" t="n">
-        <v>2629041</v>
+        <v>1694278</v>
       </c>
       <c r="G42" s="22" t="n">
-        <v>1694278</v>
+        <v>3932630</v>
       </c>
       <c r="H42" s="22" t="n">
-        <v>3932630</v>
+        <v>3113140</v>
       </c>
       <c r="I42" s="22" t="n">
-        <v>3113140</v>
+        <v>4112995</v>
       </c>
       <c r="J42" s="22" t="n">
-        <v>4112995</v>
+        <v>3391297</v>
       </c>
       <c r="K42" s="22" t="n">
-        <v>3391297</v>
+        <v>3057018</v>
       </c>
       <c r="L42" s="22" t="n">
-        <v>3057018</v>
+        <v>3818256</v>
       </c>
       <c r="M42" s="22" t="n">
-        <v>3818256</v>
+        <v>2979073</v>
       </c>
       <c r="N42" s="22" t="n">
-        <v>2979073</v>
+        <v>4038312</v>
       </c>
       <c r="O42" s="22" t="n">
-        <v>4038312</v>
+        <v>3814064</v>
       </c>
       <c r="P42" s="22" t="n">
-        <v>3814064</v>
+        <v>4603536</v>
       </c>
       <c r="Q42" s="22" t="n">
-        <v>4603536</v>
+        <v>3486198</v>
       </c>
       <c r="R42" s="22" t="n">
-        <v>3486198</v>
+        <v>2676699</v>
       </c>
       <c r="S42" s="22" t="n">
-        <v>2676699</v>
+        <v>5559302</v>
       </c>
       <c r="T42" s="22" t="n">
-        <v>5559302</v>
+        <v>4108039</v>
       </c>
       <c r="U42" s="22" t="n">
-        <v>4108039</v>
+        <v>4997590</v>
       </c>
       <c r="V42" s="22" t="n">
-        <v>4997590</v>
+        <v>4192035</v>
       </c>
       <c r="W42" s="22" t="n">
-        <v>4192035</v>
+        <v>6821347</v>
       </c>
       <c r="X42" s="22" t="n">
-        <v>6821347</v>
+        <v>7888880</v>
       </c>
       <c r="Y42" s="22" t="n">
-        <v>7888880</v>
+        <v>8940093</v>
       </c>
       <c r="Z42" s="22" t="n">
-        <v>8940093</v>
+        <v>9501628</v>
       </c>
       <c r="AA42" s="22" t="n">
-        <v>9501628</v>
+        <v>8741074</v>
       </c>
       <c r="AB42" s="22" t="n">
-        <v>8741074</v>
+        <v>7689374</v>
       </c>
       <c r="AC42" s="22" t="n">
-        <v>7689374</v>
+        <v>7494107</v>
       </c>
       <c r="AD42" s="22" t="n">
-        <v>7494107</v>
+        <v>10112979</v>
       </c>
       <c r="AE42" s="22" t="n">
-        <v>10112979</v>
+        <v>9816746</v>
       </c>
       <c r="AF42" s="22" t="n">
-        <v>9816746</v>
+        <v>11587904</v>
       </c>
       <c r="AG42" s="22" t="n">
-        <v>11587904</v>
+        <v>7790037</v>
       </c>
       <c r="AH42" s="22" t="n">
-        <v>7790037</v>
+        <v>6587792</v>
       </c>
       <c r="AI42" s="22" t="n">
-        <v>6587792</v>
+        <v>7429695</v>
       </c>
       <c r="AJ42" s="22" t="n">
-        <v>7429695</v>
+        <v>10319489</v>
       </c>
       <c r="AK42" s="22" t="n">
-        <v>10319489</v>
+        <v>11493607</v>
       </c>
       <c r="AL42" s="22" t="n">
-        <v>11493607</v>
+        <v>11317106</v>
       </c>
       <c r="AM42" s="22" t="n">
-        <v>11317106</v>
+        <v>11276483</v>
       </c>
       <c r="AN42" s="22" t="n">
-        <v>11276483</v>
+        <v>13205013</v>
       </c>
       <c r="AO42" s="22" t="n">
-        <v>13205013</v>
+        <v>10544061</v>
       </c>
       <c r="AP42" s="22" t="n">
-        <v>10544061</v>
+        <v>7433291</v>
       </c>
       <c r="AQ42" s="22" t="n">
-        <v>7433291</v>
+        <v>7148398</v>
       </c>
       <c r="AR42" s="22" t="n">
-        <v>7148398</v>
+        <v>8873918</v>
       </c>
       <c r="AS42" s="22" t="n">
-        <v>8873918</v>
+        <v>8482154</v>
       </c>
       <c r="AT42" s="22" t="n">
-        <v>8482154</v>
+        <v>10895547</v>
       </c>
       <c r="AU42" s="22" t="n">
-        <v>10895547</v>
+        <v>12403129</v>
       </c>
       <c r="AV42" s="22" t="n">
-        <v>12403129</v>
+        <v>8685964</v>
       </c>
       <c r="AW42" s="22" t="n">
-        <v>8685964</v>
+        <v>12629284</v>
       </c>
       <c r="AX42" s="22" t="n">
-        <v>12629284</v>
+        <v>11001135</v>
       </c>
       <c r="AY42" s="22" t="n">
-        <v>11001135</v>
+        <v>8133824</v>
       </c>
       <c r="AZ42" s="22" t="n">
-        <v>8133824</v>
+        <v>10015800</v>
       </c>
       <c r="BA42" s="22" t="n">
-        <v>10015800</v>
+        <v>13794715</v>
       </c>
       <c r="BB42" s="22" t="n">
-        <v>13794715</v>
+        <v>8099560</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,154 +6979,154 @@
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="n">
-        <v>10740</v>
-      </c>
-      <c r="F43" s="15" t="n">
         <v>14305</v>
       </c>
+      <c r="F43" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="G43" s="15" t="s">
         <v>58</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="15" t="s">
-        <v>58</v>
+      <c r="I43" s="15" t="n">
+        <v>39179</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>39179</v>
+        <v>28302</v>
       </c>
       <c r="K43" s="15" t="n">
-        <v>28302</v>
+        <v>27266</v>
       </c>
       <c r="L43" s="15" t="n">
-        <v>27266</v>
+        <v>25519</v>
       </c>
       <c r="M43" s="15" t="n">
-        <v>25519</v>
+        <v>31821</v>
       </c>
       <c r="N43" s="15" t="n">
-        <v>31821</v>
+        <v>34319</v>
       </c>
       <c r="O43" s="15" t="n">
-        <v>34319</v>
+        <v>62376</v>
       </c>
       <c r="P43" s="15" t="n">
-        <v>62376</v>
+        <v>42758</v>
       </c>
       <c r="Q43" s="15" t="n">
-        <v>42758</v>
+        <v>28723</v>
       </c>
       <c r="R43" s="15" t="n">
-        <v>28723</v>
+        <v>34912</v>
       </c>
       <c r="S43" s="15" t="n">
-        <v>34912</v>
+        <v>75048</v>
       </c>
       <c r="T43" s="15" t="n">
-        <v>75048</v>
+        <v>54069</v>
       </c>
       <c r="U43" s="15" t="n">
-        <v>54069</v>
+        <v>10854</v>
       </c>
       <c r="V43" s="15" t="n">
-        <v>10854</v>
+        <v>99059</v>
       </c>
       <c r="W43" s="15" t="n">
-        <v>99059</v>
+        <v>26883</v>
       </c>
       <c r="X43" s="15" t="n">
-        <v>26883</v>
+        <v>31848</v>
       </c>
       <c r="Y43" s="15" t="n">
-        <v>31848</v>
+        <v>105248</v>
       </c>
       <c r="Z43" s="15" t="n">
-        <v>105248</v>
+        <v>158031</v>
       </c>
       <c r="AA43" s="15" t="n">
-        <v>158031</v>
+        <v>106165</v>
       </c>
       <c r="AB43" s="15" t="n">
-        <v>106165</v>
+        <v>99265</v>
       </c>
       <c r="AC43" s="15" t="n">
-        <v>99265</v>
+        <v>77423</v>
       </c>
       <c r="AD43" s="15" t="n">
-        <v>77423</v>
+        <v>70036</v>
       </c>
       <c r="AE43" s="15" t="n">
-        <v>70036</v>
+        <v>42319</v>
       </c>
       <c r="AF43" s="15" t="n">
-        <v>42319</v>
+        <v>73328</v>
       </c>
       <c r="AG43" s="15" t="n">
-        <v>73328</v>
+        <v>106965</v>
       </c>
       <c r="AH43" s="15" t="n">
-        <v>106965</v>
+        <v>55013</v>
       </c>
       <c r="AI43" s="15" t="n">
-        <v>55013</v>
+        <v>75093</v>
       </c>
       <c r="AJ43" s="15" t="n">
-        <v>75093</v>
+        <v>188811</v>
       </c>
       <c r="AK43" s="15" t="n">
-        <v>188811</v>
+        <v>328203</v>
       </c>
       <c r="AL43" s="15" t="n">
-        <v>328203</v>
+        <v>185190</v>
       </c>
       <c r="AM43" s="15" t="n">
-        <v>185190</v>
+        <v>65942</v>
       </c>
       <c r="AN43" s="15" t="n">
-        <v>65942</v>
+        <v>164356</v>
       </c>
       <c r="AO43" s="15" t="n">
-        <v>164356</v>
+        <v>182044</v>
       </c>
       <c r="AP43" s="15" t="n">
-        <v>182044</v>
+        <v>53217</v>
       </c>
       <c r="AQ43" s="15" t="n">
-        <v>53217</v>
+        <v>80413</v>
       </c>
       <c r="AR43" s="15" t="n">
-        <v>80413</v>
+        <v>137105</v>
       </c>
       <c r="AS43" s="15" t="n">
-        <v>137105</v>
+        <v>66414</v>
       </c>
       <c r="AT43" s="15" t="n">
-        <v>66414</v>
+        <v>64389</v>
       </c>
       <c r="AU43" s="15" t="n">
-        <v>64389</v>
+        <v>95810</v>
       </c>
       <c r="AV43" s="15" t="n">
-        <v>95810</v>
+        <v>59891</v>
       </c>
       <c r="AW43" s="15" t="n">
-        <v>59891</v>
+        <v>104561</v>
       </c>
       <c r="AX43" s="15" t="n">
-        <v>104561</v>
+        <v>113608</v>
       </c>
       <c r="AY43" s="15" t="n">
-        <v>113608</v>
+        <v>67996</v>
       </c>
       <c r="AZ43" s="15" t="n">
-        <v>67996</v>
+        <v>77233</v>
       </c>
       <c r="BA43" s="15" t="n">
-        <v>77233</v>
+        <v>114504</v>
       </c>
       <c r="BB43" s="15" t="n">
-        <v>114504</v>
+        <v>133033</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,8 +7242,8 @@
       <c r="T45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="19" t="s">
-        <v>58</v>
+      <c r="U45" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="23" t="n">
         <v>0</v>
@@ -7458,104 +7458,104 @@
       <c r="T47" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="22" t="s">
-        <v>58</v>
+      <c r="U47" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="22" t="n">
-        <v>0</v>
+        <v>-3463</v>
       </c>
       <c r="W47" s="22" t="n">
-        <v>-3463</v>
+        <v>-4248</v>
       </c>
       <c r="X47" s="22" t="n">
-        <v>-4248</v>
+        <v>-4007</v>
       </c>
       <c r="Y47" s="22" t="n">
-        <v>-4007</v>
+        <v>-3750</v>
       </c>
       <c r="Z47" s="22" t="n">
-        <v>-3750</v>
+        <v>-5417</v>
       </c>
       <c r="AA47" s="22" t="n">
-        <v>-5417</v>
+        <v>-10567</v>
       </c>
       <c r="AB47" s="22" t="n">
-        <v>-10567</v>
+        <v>-603</v>
       </c>
       <c r="AC47" s="22" t="n">
-        <v>-603</v>
+        <v>-792</v>
       </c>
       <c r="AD47" s="22" t="n">
-        <v>-792</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="22" t="n">
-        <v>0</v>
+        <v>-2732</v>
       </c>
       <c r="AF47" s="22" t="n">
-        <v>-2732</v>
+        <v>-19274</v>
       </c>
       <c r="AG47" s="22" t="n">
-        <v>-19274</v>
+        <v>-3452</v>
       </c>
       <c r="AH47" s="22" t="n">
-        <v>-3452</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AJ47" s="22" t="n">
-        <v>0</v>
+        <v>-1207</v>
       </c>
       <c r="AK47" s="22" t="n">
-        <v>-1207</v>
+        <v>-17204</v>
       </c>
       <c r="AL47" s="22" t="n">
-        <v>-17204</v>
+        <v>-11889</v>
       </c>
       <c r="AM47" s="22" t="n">
-        <v>-11889</v>
+        <v>-3910</v>
       </c>
       <c r="AN47" s="22" t="n">
-        <v>-3910</v>
+        <v>-11566</v>
       </c>
       <c r="AO47" s="22" t="n">
-        <v>-11566</v>
+        <v>-2945</v>
       </c>
       <c r="AP47" s="22" t="n">
-        <v>-2945</v>
+        <v>-5947</v>
       </c>
       <c r="AQ47" s="22" t="n">
-        <v>-5947</v>
+        <v>-3586</v>
       </c>
       <c r="AR47" s="22" t="n">
-        <v>-3586</v>
+        <v>-22198</v>
       </c>
       <c r="AS47" s="22" t="n">
-        <v>-22198</v>
+        <v>-8281</v>
       </c>
       <c r="AT47" s="22" t="n">
-        <v>-8281</v>
+        <v>-39065</v>
       </c>
       <c r="AU47" s="22" t="n">
-        <v>-39065</v>
+        <v>-7425</v>
       </c>
       <c r="AV47" s="22" t="n">
-        <v>-7425</v>
+        <v>-73547</v>
       </c>
       <c r="AW47" s="22" t="n">
-        <v>-73547</v>
+        <v>-57788</v>
       </c>
       <c r="AX47" s="22" t="n">
-        <v>-57788</v>
+        <v>-164034</v>
       </c>
       <c r="AY47" s="22" t="n">
-        <v>-164034</v>
+        <v>-3327</v>
       </c>
       <c r="AZ47" s="22" t="n">
-        <v>-3327</v>
+        <v>-17347</v>
       </c>
       <c r="BA47" s="22" t="n">
-        <v>-17347</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="22" t="n">
         <v>0</v>
@@ -7617,104 +7617,104 @@
       <c r="T48" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="21" t="s">
-        <v>58</v>
+      <c r="U48" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V48" s="24" t="n">
-        <v>0</v>
+        <v>-3463</v>
       </c>
       <c r="W48" s="24" t="n">
-        <v>-3463</v>
+        <v>-4248</v>
       </c>
       <c r="X48" s="24" t="n">
-        <v>-4248</v>
+        <v>-4007</v>
       </c>
       <c r="Y48" s="24" t="n">
-        <v>-4007</v>
+        <v>-3750</v>
       </c>
       <c r="Z48" s="24" t="n">
-        <v>-3750</v>
+        <v>-5417</v>
       </c>
       <c r="AA48" s="24" t="n">
-        <v>-5417</v>
+        <v>-10567</v>
       </c>
       <c r="AB48" s="24" t="n">
-        <v>-10567</v>
+        <v>-603</v>
       </c>
       <c r="AC48" s="24" t="n">
-        <v>-603</v>
+        <v>-792</v>
       </c>
       <c r="AD48" s="24" t="n">
-        <v>-792</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="24" t="n">
-        <v>0</v>
+        <v>-2732</v>
       </c>
       <c r="AF48" s="24" t="n">
-        <v>-2732</v>
+        <v>-19274</v>
       </c>
       <c r="AG48" s="24" t="n">
-        <v>-19274</v>
+        <v>-3452</v>
       </c>
       <c r="AH48" s="24" t="n">
-        <v>-3452</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AJ48" s="24" t="n">
-        <v>0</v>
+        <v>-1207</v>
       </c>
       <c r="AK48" s="24" t="n">
-        <v>-1207</v>
+        <v>-17204</v>
       </c>
       <c r="AL48" s="24" t="n">
-        <v>-17204</v>
+        <v>-11889</v>
       </c>
       <c r="AM48" s="24" t="n">
-        <v>-11889</v>
+        <v>-3910</v>
       </c>
       <c r="AN48" s="24" t="n">
-        <v>-3910</v>
+        <v>-11566</v>
       </c>
       <c r="AO48" s="24" t="n">
-        <v>-11566</v>
+        <v>-2945</v>
       </c>
       <c r="AP48" s="24" t="n">
-        <v>-2945</v>
+        <v>-5947</v>
       </c>
       <c r="AQ48" s="24" t="n">
-        <v>-5947</v>
+        <v>-3586</v>
       </c>
       <c r="AR48" s="24" t="n">
-        <v>-3586</v>
+        <v>-22198</v>
       </c>
       <c r="AS48" s="24" t="n">
-        <v>-22198</v>
+        <v>-8281</v>
       </c>
       <c r="AT48" s="24" t="n">
-        <v>-8281</v>
+        <v>-39065</v>
       </c>
       <c r="AU48" s="24" t="n">
-        <v>-39065</v>
+        <v>-7425</v>
       </c>
       <c r="AV48" s="24" t="n">
-        <v>-7425</v>
+        <v>-73547</v>
       </c>
       <c r="AW48" s="24" t="n">
-        <v>-73547</v>
+        <v>-57788</v>
       </c>
       <c r="AX48" s="24" t="n">
-        <v>-57788</v>
+        <v>-164034</v>
       </c>
       <c r="AY48" s="24" t="n">
-        <v>-164034</v>
+        <v>-3327</v>
       </c>
       <c r="AZ48" s="24" t="n">
-        <v>-3327</v>
+        <v>-17347</v>
       </c>
       <c r="BA48" s="24" t="n">
-        <v>-17347</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="24" t="n">
         <v>0</v>
@@ -7833,8 +7833,8 @@
       <c r="T50" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="22" t="s">
-        <v>58</v>
+      <c r="U50" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V50" s="22" t="n">
         <v>0</v>
@@ -7943,154 +7943,154 @@
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24" t="n">
-        <v>2289864</v>
+        <v>2653787</v>
       </c>
       <c r="F51" s="24" t="n">
-        <v>2653787</v>
+        <v>1701963</v>
       </c>
       <c r="G51" s="24" t="n">
-        <v>1701963</v>
+        <v>3963180</v>
       </c>
       <c r="H51" s="24" t="n">
-        <v>3963180</v>
+        <v>3138671</v>
       </c>
       <c r="I51" s="24" t="n">
-        <v>3138671</v>
+        <v>4165937</v>
       </c>
       <c r="J51" s="24" t="n">
-        <v>4165937</v>
+        <v>3427964</v>
       </c>
       <c r="K51" s="24" t="n">
-        <v>3427964</v>
+        <v>3085412</v>
       </c>
       <c r="L51" s="24" t="n">
-        <v>3085412</v>
+        <v>3844070</v>
       </c>
       <c r="M51" s="24" t="n">
-        <v>3844070</v>
+        <v>3010894</v>
       </c>
       <c r="N51" s="24" t="n">
-        <v>3010894</v>
+        <v>4072631</v>
       </c>
       <c r="O51" s="24" t="n">
-        <v>4072631</v>
+        <v>3876440</v>
       </c>
       <c r="P51" s="24" t="n">
-        <v>3876440</v>
+        <v>4646294</v>
       </c>
       <c r="Q51" s="24" t="n">
-        <v>4646294</v>
+        <v>3514921</v>
       </c>
       <c r="R51" s="24" t="n">
-        <v>3514921</v>
+        <v>2711611</v>
       </c>
       <c r="S51" s="24" t="n">
-        <v>2711611</v>
+        <v>5634350</v>
       </c>
       <c r="T51" s="24" t="n">
-        <v>5634350</v>
+        <v>4162108</v>
       </c>
       <c r="U51" s="24" t="n">
-        <v>4162108</v>
+        <v>5008444</v>
       </c>
       <c r="V51" s="24" t="n">
-        <v>5008444</v>
+        <v>4287631</v>
       </c>
       <c r="W51" s="24" t="n">
-        <v>4287631</v>
+        <v>6843982</v>
       </c>
       <c r="X51" s="24" t="n">
-        <v>6843982</v>
+        <v>7916721</v>
       </c>
       <c r="Y51" s="24" t="n">
-        <v>7916721</v>
+        <v>9041591</v>
       </c>
       <c r="Z51" s="24" t="n">
-        <v>9041591</v>
+        <v>9654242</v>
       </c>
       <c r="AA51" s="24" t="n">
-        <v>9654242</v>
+        <v>8836672</v>
       </c>
       <c r="AB51" s="24" t="n">
-        <v>8836672</v>
+        <v>7788036</v>
       </c>
       <c r="AC51" s="24" t="n">
-        <v>7788036</v>
+        <v>7570738</v>
       </c>
       <c r="AD51" s="24" t="n">
-        <v>7570738</v>
+        <v>10183015</v>
       </c>
       <c r="AE51" s="24" t="n">
-        <v>10183015</v>
+        <v>9856333</v>
       </c>
       <c r="AF51" s="24" t="n">
-        <v>9856333</v>
+        <v>11641958</v>
       </c>
       <c r="AG51" s="24" t="n">
-        <v>11641958</v>
+        <v>7893550</v>
       </c>
       <c r="AH51" s="24" t="n">
-        <v>7893550</v>
+        <v>6642805</v>
       </c>
       <c r="AI51" s="24" t="n">
-        <v>6642805</v>
+        <v>7504788</v>
       </c>
       <c r="AJ51" s="24" t="n">
-        <v>7504788</v>
+        <v>10507093</v>
       </c>
       <c r="AK51" s="24" t="n">
-        <v>10507093</v>
+        <v>11804606</v>
       </c>
       <c r="AL51" s="24" t="n">
-        <v>11804606</v>
+        <v>11490407</v>
       </c>
       <c r="AM51" s="24" t="n">
-        <v>11490407</v>
+        <v>11338515</v>
       </c>
       <c r="AN51" s="24" t="n">
-        <v>11338515</v>
+        <v>13357803</v>
       </c>
       <c r="AO51" s="24" t="n">
-        <v>13357803</v>
+        <v>10723160</v>
       </c>
       <c r="AP51" s="24" t="n">
-        <v>10723160</v>
+        <v>7480561</v>
       </c>
       <c r="AQ51" s="24" t="n">
-        <v>7480561</v>
+        <v>7225225</v>
       </c>
       <c r="AR51" s="24" t="n">
-        <v>7225225</v>
+        <v>8988825</v>
       </c>
       <c r="AS51" s="24" t="n">
-        <v>8988825</v>
+        <v>8540287</v>
       </c>
       <c r="AT51" s="24" t="n">
-        <v>8540287</v>
+        <v>10920871</v>
       </c>
       <c r="AU51" s="24" t="n">
-        <v>10920871</v>
+        <v>13793609</v>
       </c>
       <c r="AV51" s="24" t="n">
-        <v>13793609</v>
+        <v>8672308</v>
       </c>
       <c r="AW51" s="24" t="n">
-        <v>8672308</v>
+        <v>12676057</v>
       </c>
       <c r="AX51" s="24" t="n">
-        <v>12676057</v>
+        <v>10950709</v>
       </c>
       <c r="AY51" s="24" t="n">
-        <v>10950709</v>
+        <v>8198493</v>
       </c>
       <c r="AZ51" s="24" t="n">
-        <v>8198493</v>
+        <v>10075686</v>
       </c>
       <c r="BA51" s="24" t="n">
-        <v>10075686</v>
+        <v>13921722</v>
       </c>
       <c r="BB51" s="24" t="n">
-        <v>13921722</v>
+        <v>8232593</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,31 +8536,31 @@
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="n">
-        <v>5544643</v>
+        <v>6358709</v>
       </c>
       <c r="F58" s="22" t="n">
-        <v>6358709</v>
+        <v>6948463</v>
       </c>
       <c r="G58" s="22" t="n">
-        <v>6948463</v>
+        <v>6726112</v>
       </c>
       <c r="H58" s="22" t="n">
-        <v>6726112</v>
+        <v>7086039</v>
       </c>
       <c r="I58" s="22" t="n">
-        <v>7086039</v>
+        <v>6610471</v>
       </c>
       <c r="J58" s="22" t="n">
-        <v>6610471</v>
+        <v>6778768</v>
       </c>
       <c r="K58" s="22" t="n">
-        <v>6778768</v>
+        <v>7779310</v>
       </c>
       <c r="L58" s="22" t="n">
-        <v>7779310</v>
+        <v>7195122</v>
       </c>
       <c r="M58" s="22" t="n">
-        <v>7195122</v>
+        <v>0</v>
       </c>
       <c r="N58" s="22" t="n">
         <v>0</v>
@@ -8574,8 +8574,8 @@
       <c r="Q58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="22" t="n">
-        <v>0</v>
+      <c r="R58" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="S58" s="22" t="s">
         <v>58</v>
@@ -8820,12 +8820,12 @@
       <c r="AT59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AU59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV59" s="15" t="n">
+      <c r="AU59" s="15" t="n">
         <v>130400</v>
       </c>
+      <c r="AV59" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AW59" s="15" t="s">
         <v>58</v>
       </c>
@@ -8838,11 +8838,11 @@
       <c r="AZ59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BA59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB59" s="15" t="n">
+      <c r="BA59" s="15" t="n">
         <v>194994</v>
+      </c>
+      <c r="BB59" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8854,154 +8854,154 @@
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="n">
-        <v>38279871</v>
+        <v>48208325</v>
       </c>
       <c r="F60" s="22" t="n">
-        <v>48208325</v>
+        <v>47683159</v>
       </c>
       <c r="G60" s="22" t="n">
-        <v>47683159</v>
+        <v>49183081</v>
       </c>
       <c r="H60" s="22" t="n">
-        <v>49183081</v>
+        <v>50609465</v>
       </c>
       <c r="I60" s="22" t="n">
-        <v>50609465</v>
+        <v>47165210</v>
       </c>
       <c r="J60" s="22" t="n">
-        <v>47165210</v>
+        <v>44727084</v>
       </c>
       <c r="K60" s="22" t="n">
-        <v>44727084</v>
+        <v>42702939</v>
       </c>
       <c r="L60" s="22" t="n">
-        <v>42702939</v>
+        <v>42721267</v>
       </c>
       <c r="M60" s="22" t="n">
-        <v>42721267</v>
+        <v>43244538</v>
       </c>
       <c r="N60" s="22" t="n">
-        <v>43244538</v>
+        <v>47095116</v>
       </c>
       <c r="O60" s="22" t="n">
-        <v>47095116</v>
+        <v>50529451</v>
       </c>
       <c r="P60" s="22" t="n">
-        <v>50529451</v>
+        <v>52903869</v>
       </c>
       <c r="Q60" s="22" t="n">
-        <v>52903869</v>
+        <v>60653792</v>
       </c>
       <c r="R60" s="22" t="n">
-        <v>60653792</v>
+        <v>62547</v>
       </c>
       <c r="S60" s="22" t="n">
-        <v>62547</v>
+        <v>60261</v>
       </c>
       <c r="T60" s="22" t="n">
-        <v>60261</v>
+        <v>66662</v>
       </c>
       <c r="U60" s="22" t="n">
-        <v>66662</v>
+        <v>78271</v>
       </c>
       <c r="V60" s="22" t="n">
-        <v>78271</v>
+        <v>89754</v>
       </c>
       <c r="W60" s="22" t="n">
-        <v>89754</v>
+        <v>99417</v>
       </c>
       <c r="X60" s="22" t="n">
-        <v>99417</v>
+        <v>120844</v>
       </c>
       <c r="Y60" s="22" t="n">
-        <v>120844</v>
+        <v>120163</v>
       </c>
       <c r="Z60" s="22" t="n">
-        <v>120163</v>
+        <v>113956</v>
       </c>
       <c r="AA60" s="22" t="n">
-        <v>113956</v>
+        <v>115780</v>
       </c>
       <c r="AB60" s="22" t="n">
-        <v>115780</v>
+        <v>120437</v>
       </c>
       <c r="AC60" s="22" t="n">
-        <v>120437</v>
+        <v>126571</v>
       </c>
       <c r="AD60" s="22" t="n">
-        <v>126571</v>
+        <v>131736</v>
       </c>
       <c r="AE60" s="22" t="n">
-        <v>131736</v>
+        <v>134538</v>
       </c>
       <c r="AF60" s="22" t="n">
-        <v>134538</v>
+        <v>141242</v>
       </c>
       <c r="AG60" s="22" t="n">
-        <v>141242</v>
+        <v>163512</v>
       </c>
       <c r="AH60" s="22" t="n">
-        <v>163512</v>
+        <v>174583</v>
       </c>
       <c r="AI60" s="22" t="n">
-        <v>174583</v>
+        <v>174623</v>
       </c>
       <c r="AJ60" s="22" t="n">
-        <v>174623</v>
+        <v>168824</v>
       </c>
       <c r="AK60" s="22" t="n">
-        <v>168824</v>
+        <v>170315</v>
       </c>
       <c r="AL60" s="22" t="n">
-        <v>170315</v>
+        <v>174027</v>
       </c>
       <c r="AM60" s="22" t="n">
-        <v>174027</v>
+        <v>171152</v>
       </c>
       <c r="AN60" s="22" t="n">
-        <v>171152</v>
+        <v>151208</v>
       </c>
       <c r="AO60" s="22" t="n">
-        <v>151208</v>
+        <v>163435</v>
       </c>
       <c r="AP60" s="22" t="n">
-        <v>163435</v>
+        <v>187194</v>
       </c>
       <c r="AQ60" s="22" t="n">
-        <v>187194</v>
+        <v>184427</v>
       </c>
       <c r="AR60" s="22" t="n">
-        <v>184427</v>
+        <v>195594</v>
       </c>
       <c r="AS60" s="22" t="n">
-        <v>195594</v>
+        <v>199748</v>
       </c>
       <c r="AT60" s="22" t="n">
-        <v>199748</v>
+        <v>180693</v>
       </c>
       <c r="AU60" s="22" t="n">
-        <v>180693</v>
+        <v>163926</v>
       </c>
       <c r="AV60" s="22" t="n">
-        <v>163926</v>
+        <v>170869</v>
       </c>
       <c r="AW60" s="22" t="n">
-        <v>170869</v>
+        <v>166052</v>
       </c>
       <c r="AX60" s="22" t="n">
-        <v>166052</v>
+        <v>166481</v>
       </c>
       <c r="AY60" s="22" t="n">
-        <v>166481</v>
+        <v>179375</v>
       </c>
       <c r="AZ60" s="22" t="n">
-        <v>179375</v>
+        <v>205899</v>
       </c>
       <c r="BA60" s="22" t="n">
-        <v>205899</v>
+        <v>223620</v>
       </c>
       <c r="BB60" s="22" t="n">
-        <v>223620</v>
+        <v>260511</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9013,154 +9013,154 @@
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15" t="n">
-        <v>10729271</v>
-      </c>
-      <c r="F61" s="15" t="n">
         <v>7283605</v>
       </c>
+      <c r="F61" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="G61" s="15" t="s">
         <v>58</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="15" t="s">
-        <v>58</v>
+      <c r="I61" s="15" t="n">
+        <v>26743345</v>
       </c>
       <c r="J61" s="15" t="n">
-        <v>26743345</v>
+        <v>17194411</v>
       </c>
       <c r="K61" s="15" t="n">
-        <v>17194411</v>
+        <v>20531627</v>
       </c>
       <c r="L61" s="15" t="n">
-        <v>20531627</v>
+        <v>16100315</v>
       </c>
       <c r="M61" s="15" t="n">
-        <v>16100315</v>
+        <v>10179463</v>
       </c>
       <c r="N61" s="15" t="n">
-        <v>10179463</v>
+        <v>19566135</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>19566135</v>
+        <v>31679025</v>
       </c>
       <c r="P61" s="15" t="n">
-        <v>31679025</v>
+        <v>15783684</v>
       </c>
       <c r="Q61" s="15" t="n">
-        <v>15783684</v>
+        <v>32901489</v>
       </c>
       <c r="R61" s="15" t="n">
-        <v>32901489</v>
+        <v>22544</v>
       </c>
       <c r="S61" s="15" t="n">
-        <v>22544</v>
+        <v>32967</v>
       </c>
       <c r="T61" s="15" t="n">
-        <v>32967</v>
+        <v>39081</v>
       </c>
       <c r="U61" s="15" t="n">
-        <v>39081</v>
+        <v>5176</v>
       </c>
       <c r="V61" s="15" t="n">
-        <v>5176</v>
+        <v>49367</v>
       </c>
       <c r="W61" s="15" t="n">
-        <v>49367</v>
+        <v>19970</v>
       </c>
       <c r="X61" s="15" t="n">
-        <v>19970</v>
+        <v>33003</v>
       </c>
       <c r="Y61" s="15" t="n">
-        <v>33003</v>
+        <v>82919</v>
       </c>
       <c r="Z61" s="15" t="n">
-        <v>82919</v>
+        <v>44277</v>
       </c>
       <c r="AA61" s="15" t="n">
-        <v>44277</v>
+        <v>61916</v>
       </c>
       <c r="AB61" s="15" t="n">
-        <v>61916</v>
+        <v>84094</v>
       </c>
       <c r="AC61" s="15" t="n">
-        <v>84094</v>
+        <v>65038</v>
       </c>
       <c r="AD61" s="15" t="n">
-        <v>65038</v>
+        <v>57403</v>
       </c>
       <c r="AE61" s="15" t="n">
-        <v>57403</v>
+        <v>60076</v>
       </c>
       <c r="AF61" s="15" t="n">
-        <v>60076</v>
+        <v>44896</v>
       </c>
       <c r="AG61" s="15" t="n">
-        <v>44896</v>
+        <v>48214</v>
       </c>
       <c r="AH61" s="15" t="n">
-        <v>48214</v>
+        <v>45822</v>
       </c>
       <c r="AI61" s="15" t="n">
-        <v>45822</v>
+        <v>60450</v>
       </c>
       <c r="AJ61" s="15" t="n">
-        <v>60450</v>
+        <v>83620</v>
       </c>
       <c r="AK61" s="15" t="n">
-        <v>83620</v>
+        <v>95361</v>
       </c>
       <c r="AL61" s="15" t="n">
-        <v>95361</v>
+        <v>100990</v>
       </c>
       <c r="AM61" s="15" t="n">
-        <v>100990</v>
+        <v>89108</v>
       </c>
       <c r="AN61" s="15" t="n">
-        <v>89108</v>
+        <v>105796</v>
       </c>
       <c r="AO61" s="15" t="n">
-        <v>105796</v>
+        <v>111097</v>
       </c>
       <c r="AP61" s="15" t="n">
-        <v>111097</v>
+        <v>100920</v>
       </c>
       <c r="AQ61" s="15" t="n">
-        <v>100920</v>
+        <v>33108</v>
       </c>
       <c r="AR61" s="15" t="n">
-        <v>33108</v>
+        <v>49544</v>
       </c>
       <c r="AS61" s="15" t="n">
-        <v>49544</v>
+        <v>33406</v>
       </c>
       <c r="AT61" s="15" t="n">
-        <v>33406</v>
+        <v>53509</v>
       </c>
       <c r="AU61" s="15" t="n">
-        <v>53509</v>
+        <v>66961</v>
       </c>
       <c r="AV61" s="15" t="n">
-        <v>66961</v>
+        <v>75765</v>
       </c>
       <c r="AW61" s="15" t="n">
-        <v>75765</v>
+        <v>67941</v>
       </c>
       <c r="AX61" s="15" t="n">
-        <v>67941</v>
+        <v>75775</v>
       </c>
       <c r="AY61" s="15" t="n">
-        <v>75775</v>
+        <v>111050</v>
       </c>
       <c r="AZ61" s="15" t="n">
-        <v>111050</v>
+        <v>144361</v>
       </c>
       <c r="BA61" s="15" t="n">
-        <v>144361</v>
+        <v>155428</v>
       </c>
       <c r="BB61" s="15" t="n">
-        <v>155428</v>
+        <v>116402</v>
       </c>
     </row>
   </sheetData>
